--- a/AutomatedTest/TestData/Temenos/AutoDecisionProcess.xlsx
+++ b/AutomatedTest/TestData/Temenos/AutoDecisionProcess.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD4AA6-FABD-488B-8B57-47C8BB353B00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740A4176-8E1E-480D-8D05-428E1CD1C91F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,11 +12,12 @@
     <sheet name="InputTestData" sheetId="2" r:id="rId2"/>
     <sheet name="ValidationTestData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8464,18 +8465,6 @@
     <t>AddStipulations</t>
   </si>
   <si>
-    <t>stipulation</t>
-  </si>
-  <si>
-    <t>requiredFor</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>2 years tax returns</t>
   </si>
   <si>
@@ -8494,18 +8483,9 @@
     <t>AccountNumber</t>
   </si>
   <si>
-    <t>Applicationtype</t>
-  </si>
-  <si>
     <t>ApproveApplyingFor</t>
   </si>
   <si>
-    <t>RejectApplyFor</t>
-  </si>
-  <si>
-    <t>ReviewApplyFor</t>
-  </si>
-  <si>
     <t>Auto: Automation Auto Approve</t>
   </si>
   <si>
@@ -8525,6 +8505,27 @@
   </si>
   <si>
     <t>Term</t>
+  </si>
+  <si>
+    <t>ApplicationType</t>
+  </si>
+  <si>
+    <t>RejectApplyingFor</t>
+  </si>
+  <si>
+    <t>ReviewApplyingFor</t>
+  </si>
+  <si>
+    <t>Stipulation0</t>
+  </si>
+  <si>
+    <t>RequiredFor0</t>
+  </si>
+  <si>
+    <t>Description0</t>
+  </si>
+  <si>
+    <t>Comments0</t>
   </si>
 </sst>
 </file>
@@ -21136,8 +21137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CIU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21162,46 +21163,46 @@
         <v>8</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>2817</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>2822</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>2823</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>2824</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>2825</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>2820</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>2821</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>2829</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>2830</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>2831</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>2832</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>2812</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>2813</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>2814</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>2815</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>13</v>
@@ -30406,13 +30407,13 @@
         <v>2803</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>2826</v>
+        <v>2819</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>2827</v>
+        <v>2820</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>2828</v>
+        <v>2821</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>2804</v>
@@ -30433,16 +30434,16 @@
         <v>2810</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>2816</v>
+        <v>2812</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>2817</v>
+        <v>2813</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="P3" s="36" t="e">
         <f>#REF!</f>

--- a/AutomatedTest/TestData/Temenos/AutoDecisionProcess.xlsx
+++ b/AutomatedTest/TestData/Temenos/AutoDecisionProcess.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931EB724-586A-46D7-B8F4-E364A886B526}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81EFE73-0072-4798-B5C2-36620D6B5C17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>TestScriptName</t>
   </si>
@@ -139,6 +139,48 @@
   </si>
   <si>
     <t>Comments0</t>
+  </si>
+  <si>
+    <t>MemeberShipStartDate</t>
+  </si>
+  <si>
+    <t>2/27/2014</t>
+  </si>
+  <si>
+    <t>ReviewIndicatorName0</t>
+  </si>
+  <si>
+    <t>ReviewIndicatorDescription0</t>
+  </si>
+  <si>
+    <t>Bankruptcy</t>
+  </si>
+  <si>
+    <t>No bankruptcy within the last 4 years.</t>
+  </si>
+  <si>
+    <t>ReviewIndicatorName1</t>
+  </si>
+  <si>
+    <t>ReviewIndicatorDescription1</t>
+  </si>
+  <si>
+    <t>OutOfState</t>
+  </si>
+  <si>
+    <t>Physical and current address are not in PA</t>
+  </si>
+  <si>
+    <t>ReviewIndicatorName2</t>
+  </si>
+  <si>
+    <t>ReviewIndicatorDescription2</t>
+  </si>
+  <si>
+    <t>InState</t>
+  </si>
+  <si>
+    <t>Physical and current address are in PA</t>
   </si>
 </sst>
 </file>
@@ -274,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -331,6 +373,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -338,6 +383,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -430,16 +485,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -888,10 +933,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +949,7 @@
     <col min="16" max="16384" width="31.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -950,8 +995,29 @@
       <c r="O1" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="P1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="14" t="s">
         <v>11</v>
@@ -973,8 +1039,15 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
@@ -1019,33 +1092,54 @@
       </c>
       <c r="O3" s="16" t="s">
         <v>20</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:XFD1">
-    <cfRule type="duplicateValues" dxfId="8" priority="2168"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2169"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2168"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="6" priority="2172"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2181"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2184"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2187"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:XFD1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2190"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2192"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2195"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2195"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AutomatedTest/TestData/Temenos/AutoDecisionProcess.xlsx
+++ b/AutomatedTest/TestData/Temenos/AutoDecisionProcess.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81EFE73-0072-4798-B5C2-36620D6B5C17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7009E-F5EE-43CA-9328-B06126DEB4D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>TestScriptName</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>Physical and current address are in PA</t>
+  </si>
+  <si>
+    <t>RemoveDecision</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>CurrentAddressState</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>CurrentAddressState1</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -382,16 +406,109 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -933,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +1066,7 @@
     <col min="16" max="16384" width="31.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1016,8 +1133,20 @@
       <c r="V1" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="W1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="14" t="s">
         <v>11</v>
@@ -1046,8 +1175,12 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
     </row>
-    <row r="3" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
@@ -1113,33 +1246,70 @@
       </c>
       <c r="V3" s="11" t="s">
         <v>51</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:XFD1">
-    <cfRule type="duplicateValues" dxfId="9" priority="2168"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2169"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2177"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="7" priority="2172"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="6" priority="2181"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2184"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2187"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:XFD1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2190"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2192"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2195"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2">
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2">
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2">
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1147,7 +1317,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1976" operator="containsText" id="{F275B963-47B4-40E9-8324-D35C89977498}">
+          <x14:cfRule type="containsText" priority="1985" operator="containsText" id="{F275B963-47B4-40E9-8324-D35C89977498}">
             <xm:f>NOT(ISERROR(SEARCH("=",A1)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
